--- a/Excel2Json/Test/hero_l10n.xlsx
+++ b/Excel2Json/Test/hero_l10n.xlsx
@@ -84,10 +84,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -296,19 +292,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>本地化内容中文</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -463,6 +451,18 @@
   </si>
   <si>
     <t>灭霸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[100]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;256</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +967,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A5:B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,346 +978,346 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
